--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E3556-41B7-4C84-B061-FE216D1A245E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="330" yWindow="1560" windowWidth="38070" windowHeight="19365" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -110,10 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MobName_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">소드맨 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -122,10 +119,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MobDesc_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>소드맨 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -134,19 +127,240 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MobShortDesc_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>소드맨 간단 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">근접 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1002</t>
+  </si>
+  <si>
+    <t>CardDesc_1002</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1002</t>
+  </si>
+  <si>
+    <t>파이어 볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼 간단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 하나를 선택하여 5의 피해를 줍니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 피해 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1003</t>
+  </si>
+  <si>
+    <t>CardDesc_1003</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1003</t>
+  </si>
+  <si>
+    <t>금광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금광 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금광 간단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득하는 골드의 양이 20% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1004</t>
+  </si>
+  <si>
+    <t>CardDesc_1004</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1004</t>
+  </si>
+  <si>
+    <t>획득 골드 20% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요의 부적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요의 부적 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요의 부적 간단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요의 부적이 손에 들어오면 마나량이 1증가합니다. (사용불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손에 획득 시 마나 1 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1005</t>
+  </si>
+  <si>
+    <t>CardDesc_1005</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1005</t>
+  </si>
+  <si>
+    <t>성령의 가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령의 가호 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령의 가호 간단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">성령의 가호 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령의 가호가 손에 들오면 방어력이 2턴간 파괴 상태가 됩니다. (사용불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손에 획득 시 방어 파괴 2턴 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1006</t>
+  </si>
+  <si>
+    <t>CardDesc_1006</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1006</t>
+  </si>
+  <si>
+    <t>레프리칸의 금단지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레프리칸의 금단지 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레프리칸의 금단지 간단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 시 30 골드 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 시 30의 골드를 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_901002</t>
+  </si>
+  <si>
+    <t>MobShortDesc_901002</t>
+  </si>
+  <si>
+    <t>MobName_901001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobDesc_901001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobShortDesc_901001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_901002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐 간단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원거리에서 적을 저격하는 숙련된 궁수입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_901003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_901003</t>
+  </si>
+  <si>
+    <t>MobShortDesc_901003</t>
+  </si>
+  <si>
+    <t>광전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광전사 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광전사 간단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자신의 죽음을 담보로 적의 죽음을 수금하는 저승의 사자입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -174,6 +388,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -217,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +452,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,17 +813,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
@@ -618,7 +852,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -630,7 +864,7 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -642,7 +876,7 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -654,7 +888,7 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -666,7 +900,7 @@
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -678,45 +912,328 @@
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E3556-41B7-4C84-B061-FE216D1A245E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1560" windowWidth="38070" windowHeight="19365" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="1560" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,323 +42,253 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CardName_1002</t>
+  </si>
+  <si>
+    <t>CardDesc_1002</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1002</t>
+  </si>
+  <si>
+    <t>CardName_1003</t>
+  </si>
+  <si>
+    <t>CardDesc_1003</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1003</t>
+  </si>
+  <si>
+    <t>CardName_1004</t>
+  </si>
+  <si>
+    <t>CardDesc_1004</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1004</t>
+  </si>
+  <si>
+    <t>CardName_1005</t>
+  </si>
+  <si>
+    <t>CardDesc_1005</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1005</t>
+  </si>
+  <si>
+    <t>CardName_1006</t>
+  </si>
+  <si>
+    <t>CardDesc_1006</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1006</t>
+  </si>
+  <si>
+    <t>CardDesc_901002</t>
+  </si>
+  <si>
+    <t>MobShortDesc_901002</t>
+  </si>
+  <si>
+    <t>CardDesc_901003</t>
+  </si>
+  <si>
+    <t>MobShortDesc_901003</t>
+  </si>
+  <si>
     <t>MasterName_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>루시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MasterDesc_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>루시 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>루시퍼의 6번째 딸로 폭식의 여제라 불리며, 형제들을 배속에 저장하고 있음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MasterShortDesc_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>루시 간단 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>폭식의 여제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CardName_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CardDesc_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>아귀 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>마계의 가장 기본적인 마물로 굶주린 영혼을 말한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CardShortDesc_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>아귀 간단 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">근접 </t>
+  </si>
+  <si>
+    <t>파이어 볼</t>
+  </si>
+  <si>
+    <t>파이어 볼 설명</t>
+  </si>
+  <si>
+    <t>적 하나를 선택하여 5의 피해를 줍니다</t>
+  </si>
+  <si>
+    <t>파이어 볼 간단</t>
+  </si>
+  <si>
+    <t>적 피해 5</t>
+  </si>
+  <si>
+    <t>금광</t>
+  </si>
+  <si>
+    <t>금광 설명</t>
+  </si>
+  <si>
+    <t>획득하는 골드의 양이 20% 증가합니다.</t>
+  </si>
+  <si>
+    <t>금광 간단</t>
+  </si>
+  <si>
+    <t>획득 골드 20% 증가</t>
+  </si>
+  <si>
+    <t>풍요의 부적</t>
+  </si>
+  <si>
+    <t>풍요의 부적 설명</t>
+  </si>
+  <si>
+    <t>풍요의 부적이 손에 들어오면 마나량이 1증가합니다. (사용불가)</t>
+  </si>
+  <si>
+    <t>풍요의 부적 간단</t>
+  </si>
+  <si>
+    <t>손에 획득 시 마나 1 증가</t>
+  </si>
+  <si>
+    <t>성령의 가호</t>
+  </si>
+  <si>
+    <t xml:space="preserve">성령의 가호 </t>
+  </si>
+  <si>
+    <t>성령의 가호 설명</t>
+  </si>
+  <si>
+    <t>성령의 가호가 손에 들오면 방어력이 2턴간 파괴 상태가 됩니다. (사용불가)</t>
+  </si>
+  <si>
+    <t>성령의 가호 간단</t>
+  </si>
+  <si>
+    <t>손에 획득 시 방어 파괴 2턴 지속</t>
+  </si>
+  <si>
+    <t>레프리칸의 금단지</t>
+  </si>
+  <si>
+    <t>레프리칸의 금단지 설명</t>
+  </si>
+  <si>
+    <t>사용 시 30의 골드를 획득합니다.</t>
+  </si>
+  <si>
+    <t>레프리칸의 금단지 간단</t>
+  </si>
+  <si>
+    <t>사용 시 30 골드 획득</t>
+  </si>
+  <si>
+    <t>MobName_901001</t>
   </si>
   <si>
     <t xml:space="preserve">소드맨 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소드맨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobDesc_901001</t>
   </si>
   <si>
     <t>소드맨 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>발를론트 왕가의 정규군으로 칼과 방패로 무장한 상태이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobShortDesc_901001</t>
   </si>
   <si>
     <t>소드맨 간단 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>근접</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">근접 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_1002</t>
-  </si>
-  <si>
-    <t>CardDesc_1002</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1002</t>
-  </si>
-  <si>
-    <t>파이어 볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 볼 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 볼 간단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 하나를 선택하여 5의 피해를 줍니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 피해 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_1003</t>
-  </si>
-  <si>
-    <t>CardDesc_1003</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1003</t>
-  </si>
-  <si>
-    <t>금광</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금광 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금광 간단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>획득하는 골드의 양이 20% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_1004</t>
-  </si>
-  <si>
-    <t>CardDesc_1004</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1004</t>
-  </si>
-  <si>
-    <t>획득 골드 20% 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍요의 부적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍요의 부적 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍요의 부적 간단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍요의 부적이 손에 들어오면 마나량이 1증가합니다. (사용불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손에 획득 시 마나 1 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_1005</t>
-  </si>
-  <si>
-    <t>CardDesc_1005</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1005</t>
-  </si>
-  <si>
-    <t>성령의 가호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령의 가호 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령의 가호 간단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">성령의 가호 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령의 가호가 손에 들오면 방어력이 2턴간 파괴 상태가 됩니다. (사용불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손에 획득 시 방어 파괴 2턴 지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_1006</t>
-  </si>
-  <si>
-    <t>CardDesc_1006</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1006</t>
-  </si>
-  <si>
-    <t>레프리칸의 금단지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레프리칸의 금단지 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레프리칸의 금단지 간단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 시 30 골드 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 시 30의 골드를 획득합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_901002</t>
-  </si>
-  <si>
-    <t>MobShortDesc_901002</t>
-  </si>
-  <si>
-    <t>MobName_901001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MobDesc_901001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MobShortDesc_901001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CardName_901002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아쳐 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원거리에서 적을 저격하는 숙련된 궁수입니다. </t>
   </si>
   <si>
     <t>아쳐 간단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">원거리에서 적을 저격하는 숙련된 궁수입니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CardName_901003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_901003</t>
-  </si>
-  <si>
-    <t>MobShortDesc_901003</t>
   </si>
   <si>
     <t>광전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>광전사 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자신의 죽음을 담보로 적의 죽음을 수금하는 저승의 사자입니다. </t>
   </si>
   <si>
     <t>광전사 간단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자신의 죽음을 담보로 적의 죽음을 수금하는 저승의 사자입니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -813,11 +742,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -850,289 +779,289 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -1150,22 +1079,22 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>79</v>
@@ -1177,34 +1106,34 @@
         <v>80</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D31" s="6"/>
     </row>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -283,6 +283,99 @@
   </si>
   <si>
     <t>광전사 간단</t>
+  </si>
+  <si>
+    <t>CardName_1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드 소환</t>
+  </si>
+  <si>
+    <t>CardDesc_1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손으로 카드를 1장 소환한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손으로 카드를 1장 소환한다</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손으로 카드 1장 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손으로 카드 1장 소환</t>
+  </si>
+  <si>
+    <t>CardName_1012</t>
+  </si>
+  <si>
+    <t>뽑을 덱 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽑을 덱 소환</t>
+  </si>
+  <si>
+    <t>CardDesc_1012</t>
+  </si>
+  <si>
+    <t>뽑을 덱으로 카드 1장을 소환한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽑을 덱으로 카드 1장을 소환한다</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1012</t>
+  </si>
+  <si>
+    <t>뽑을 덱으로 카드 1장 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽑을 덱으로 카드 1장 소환</t>
+  </si>
+  <si>
+    <t>CardName_1013</t>
+  </si>
+  <si>
+    <t>무덤 덱 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무덤 덱 소환</t>
+  </si>
+  <si>
+    <t>CardDesc_1013</t>
+  </si>
+  <si>
+    <t>무덤 덱으로 카드 1장을 소환한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무덤 덱으로 카드 1장을 소환한다</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1013</t>
+  </si>
+  <si>
+    <t>무덤 덱으로 카드 1장 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무덤 덱으로 카드 1장 소환</t>
   </si>
 </sst>
 </file>
@@ -392,9 +485,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -746,7 +837,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A32" sqref="A32:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1138,31 +1229,112 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="10"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="10"/>
+      <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -376,6 +376,51 @@
   </si>
   <si>
     <t>무덤 덱으로 카드 1장 소환</t>
+  </si>
+  <si>
+    <t>AtkUp_01_Desc</t>
+  </si>
+  <si>
+    <t>2/2 어택업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘 2 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefUp_01_Desc</t>
+  </si>
+  <si>
+    <t>3/2 방어 업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 3 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefDown_01_Desc</t>
+  </si>
+  <si>
+    <t>3/2 방어 다운</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 3 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkUp_02_Desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/3 어택 업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘 3 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,20 +517,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -834,16 +871,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D40"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
@@ -872,10 +909,10 @@
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="3"/>
@@ -884,10 +921,10 @@
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="3"/>
@@ -896,10 +933,10 @@
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="3"/>
@@ -908,10 +945,10 @@
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="3"/>
@@ -920,10 +957,10 @@
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3"/>
@@ -932,10 +969,10 @@
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="3"/>
@@ -944,397 +981,445 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="136">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -420,6 +420,46 @@
   </si>
   <si>
     <t>힘 3 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmorBreak_01_Desc</t>
+  </si>
+  <si>
+    <t>방어구 파괴_1턴 방어력 0</t>
+  </si>
+  <si>
+    <t>방어구 파괴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doom_01_Desc</t>
+  </si>
+  <si>
+    <t>파멸_3턴 턴 종료 시 캐릭터 사망</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파멸 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burn_01_Desc</t>
+  </si>
+  <si>
+    <t>화상_2턴 턴 시작 시 체력 -2</t>
+  </si>
+  <si>
+    <t>턴 시작시 체력 -2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison_01_Desc</t>
+  </si>
+  <si>
+    <t>독_2턴 턴 종료 시 체력 -2</t>
+  </si>
+  <si>
+    <t>턴 종료시 체력 -2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,6 +562,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,16 +918,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
@@ -1421,6 +1468,54 @@
       </c>
       <c r="D44" s="3"/>
     </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -460,6 +460,18 @@
   </si>
   <si>
     <t>턴 종료시 체력 -2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bless_01_Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령의 가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 -2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,7 +578,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,17 +929,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="2"/>
@@ -1475,7 +1486,7 @@
       <c r="B45" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D45" s="3"/>
@@ -1487,7 +1498,7 @@
       <c r="B46" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D46" s="3"/>
@@ -1499,7 +1510,7 @@
       <c r="B47" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D47" s="3"/>
@@ -1511,10 +1522,22 @@
       <c r="B48" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -472,6 +472,42 @@
   </si>
   <si>
     <t>방어력 -2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 하나를 다음턴에 소환. 소환 비용 -2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 삼키기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 삼키기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 삼키기 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 카드를 삼킵니다. 삼킨 카드는 다음 턴에 핸드로 돌아오며 마나 필요량이 2 감소합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 삼키기 간단</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +552,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,6 +621,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -929,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1539,6 +1588,42 @@
       </c>
       <c r="D49" s="3"/>
     </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C0A431-BA0C-455D-896E-E0047F523076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1560" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -509,12 +510,54 @@
   <si>
     <t>카드 삼키기 간단</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81001</t>
+  </si>
+  <si>
+    <t>찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81001</t>
+  </si>
+  <si>
+    <t>인접한 1,2열의 적에게 각각 3의 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81001</t>
+  </si>
+  <si>
+    <t>1, 2열의 적에게 3 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81002</t>
+  </si>
+  <si>
+    <t>자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81002</t>
+  </si>
+  <si>
+    <t>인접한 적에게 2의 피해를 2번 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81002</t>
+  </si>
+  <si>
+    <t>인접한 적 2피해 2번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -552,7 +595,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,10 +675,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -977,11 +1033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A53" sqref="A53:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1624,6 +1680,78 @@
       </c>
       <c r="D52" s="10"/>
     </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C0A431-BA0C-455D-896E-E0047F523076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AC32A1-D746-4E8F-824D-DABBB29904B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="187">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -522,17 +522,9 @@
     <t>CardDesc_81001</t>
   </si>
   <si>
-    <t>인접한 1,2열의 적에게 각각 3의 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CardShortDesc_81001</t>
   </si>
   <si>
-    <t>1, 2열의 적에게 3 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CardName_81002</t>
   </si>
   <si>
@@ -543,14 +535,121 @@
     <t>CardDesc_81002</t>
   </si>
   <si>
-    <t>인접한 적에게 2의 피해를 2번 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CardShortDesc_81002</t>
   </si>
   <si>
-    <t>인접한 적 2피해 2번</t>
+    <t>CardName_81003</t>
+  </si>
+  <si>
+    <t>CardDesc_81003</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81003</t>
+  </si>
+  <si>
+    <t>핥기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 적에게 2의 피해를 2번 줍니다. 자르기 마크 3턴간 지속.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 1,2열의 적에게 각각 3의 피해를 줍니다. 찌르기 마크 3턴간 지속.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2열의 적에게 3 피해, 3턴간 찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 적 2피해 2번, 3턴간 자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81004</t>
+  </si>
+  <si>
+    <t>CardDesc_81004</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81004</t>
+  </si>
+  <si>
+    <t>CardName_81005</t>
+  </si>
+  <si>
+    <t>CardDesc_81005</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81005</t>
+  </si>
+  <si>
+    <t>노려보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르고 자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매서운 눈으로 인접한 적을 노려본다. 전방의 적은 2턴간 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 적 2턴간 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 적을 3의 공격력으로 찌르고, 2의 공격력으로 자른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 적 3과 2의 피해. 2턴간 마크 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81004000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노려보기_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적에게 1의 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적 1피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81001001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르기_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찔렸습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81002001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자르기_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘렸습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 -3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1700,57 +1799,201 @@
         <v>149</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>149</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="12" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="13" t="s">
+      <c r="B63" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="14"/>
+      <c r="C63" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AC32A1-D746-4E8F-824D-DABBB29904B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A797792-B416-459D-986D-276D825FEFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="200">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -650,6 +650,52 @@
   </si>
   <si>
     <t>방어력 -3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다지기_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 적 1,2,3열의 적에게 3의 피해를 줍니다. 적의 방어를 2턴간 3만틐 파괴합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 1,2,3열 적 3 피해, 2턴간 방어력 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81006</t>
+  </si>
+  <si>
+    <t>CardDesc_81006</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81006</t>
+  </si>
+  <si>
+    <t>81006000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81007</t>
+  </si>
+  <si>
+    <t>CardDesc_81007</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81007</t>
+  </si>
+  <si>
+    <t>임프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마계 악마의 대표적인 수하로 근접한 적에게 2의 피해를 입힙니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1995,6 +2041,90 @@
       </c>
       <c r="D70" s="14"/>
     </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A797792-B416-459D-986D-276D825FEFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5288FC-D4A7-4240-8C38-17DD76DE2478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="218">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -696,6 +696,68 @@
   </si>
   <si>
     <t>마계 악마의 대표적인 수하로 근접한 적에게 2의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81008</t>
+  </si>
+  <si>
+    <t>CardDesc_81008</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81008</t>
+  </si>
+  <si>
+    <t>임프 궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마계 악마의 대표적인 수하로 2열의 적에게 3의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81009</t>
+  </si>
+  <si>
+    <t>CardDesc_81009</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81009</t>
+  </si>
+  <si>
+    <t>겹주름 위</t>
+  </si>
+  <si>
+    <t>겹주름 위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">되새김을 위한 루시의 위. 자신의 턴에 루시의 만복도 20을 회복한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81010</t>
+  </si>
+  <si>
+    <t>CardDesc_81010</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81010</t>
+  </si>
+  <si>
+    <t>촌충은 체력이 높지만 스스로 자멸한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2125,6 +2187,114 @@
       </c>
       <c r="D77" s="14"/>
     </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5288FC-D4A7-4240-8C38-17DD76DE2478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A092AF1A-BBCD-4280-9A5D-A1149B0F56EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="237">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -758,6 +758,77 @@
   </si>
   <si>
     <t>근거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81011001_IconDesc</t>
+  </si>
+  <si>
+    <t>CardName_81011</t>
+  </si>
+  <si>
+    <t>CardDesc_81011</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81011</t>
+  </si>
+  <si>
+    <t>고래회충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래회충_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독 피해 1, 3턴간 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래 회충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 적 1 피해. 3턴간 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81012001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메바뇌염_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메바뇌염</t>
+  </si>
+  <si>
+    <t>아메바뇌염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인접한 적 1,2,3열의 적에게 1 피해를 주고, 중독시켜 3턴간 1의 피해를 받습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 적에게 1의 피해를 주고, 중독시켜 3턴간 1의 피해를 받습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 적 1,2,3열 1 피해. 3턴간 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2295,6 +2366,102 @@
       </c>
       <c r="D86" s="14"/>
     </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A092AF1A-BBCD-4280-9A5D-A1149B0F56EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075738E1-A6C6-4C6E-B22C-E194A25BCB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="255">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -829,6 +829,75 @@
   </si>
   <si>
     <t>CardShortDesc_81012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81013</t>
+  </si>
+  <si>
+    <t>CardDesc_81013</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81013</t>
+  </si>
+  <si>
+    <t>구토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만복도를 20만큼 소비하여 루시 위에서 카드 한장 손으로 소환합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 하나를 선택하여 구토를 날려 1의 피해를 입히고, 만복도 20을 소비하여 카드 한장을 손으로 가져온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타깃 적 1 피해. 만복도 20소모 카드 한장 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 20소모 카드 한장 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3 열의 적에게 혈토를 뿌려 2의 피해. 만복도 20을 소비하여 카드 한장을 손으로 가져온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3열 적 2 피해. 만복도 20소모 카드 한장 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2462,6 +2531,114 @@
       </c>
       <c r="D94" s="14"/>
     </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075738E1-A6C6-4C6E-B22C-E194A25BCB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5561FEC3-5A9F-4FC6-9EC1-162C210E02AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="267">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -898,6 +898,54 @@
   </si>
   <si>
     <t>1,2,3열 적 2 피해. 만복도 20소모 카드 한장 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2 열의 적에게 2의 피해. 한입 깨물때 마다 만복도 10 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2열 적 2 피해. 적 당 만복도 10 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 열의 적을 2의 피해로 두번 깨문다. 한입 깨물때 마다 만복도 10 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열의 적 2 피해 2번. 적 당 만복도 10 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2639,6 +2687,78 @@
       </c>
       <c r="D103" s="14"/>
     </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D109" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5561FEC3-5A9F-4FC6-9EC1-162C210E02AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B87E3C-AABE-4A4F-BDD2-7D2FCACA6AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4250" yWindow="4090" windowWidth="28800" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="335">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -946,6 +946,278 @@
   </si>
   <si>
     <t>1열의 적 2 피해 2번. 적 당 만복도 10 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크게 한입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3열의 적에게 1의 피해, 적 당 만복도 10 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3열의 적 1 피해. 적 당 만복도 10 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨아 먹기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명의 적을 선택하여 1의 피해, 만복도 10 회복, 마나 1 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 1 피해. 만복도 10, 마나 1 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81020000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 10을 소비하여 모든 아군의 방어력을 2턴간 3만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 10 소모. 아군 방어력 2턴간 3 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 +3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 시 마나를 1 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 1 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골동품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용 시 마나를 30 획득합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 30 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독의 숨결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독의 숨결_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체에게 3의 피해를 입히고 3턴간 중독 상태에 빠트린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체 피해 3, 3턴간 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_1015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화 불량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81023000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비프 웰링턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루시의 만복도 20을 회복한다. 소화 불량 카드 한장을 핸드에 소환한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 20 회복. 소화 불량 1장 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81025002_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 30 회복. 소화 불량 1장 소환, 아군 3턴간 2 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무라마사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 1명을 선택하여 5의 피해를 주고, 방어력을 영구 파괴합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 1 피해. 방어력 영구 파괴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1429,22 +1701,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="2"/>
     <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
@@ -2076,371 +2348,371 @@
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="14"/>
+      <c r="A53" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="14"/>
+      <c r="A54" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="14"/>
+      <c r="A55" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="12" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="12" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="12" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>170</v>
+        <v>156</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>170</v>
+        <v>157</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="12" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="12" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="12" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="12" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>205</v>
@@ -2449,315 +2721,711 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="12" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="12" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B112" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C112" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D109" s="14"/>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D115" s="14"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D116" s="14"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" s="14"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D122" s="14"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D124" s="14"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" s="14"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D126" s="14"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D127" s="14"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D131" s="14"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D132" s="14"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D133" s="14"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D134" s="14"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="14"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D136" s="14"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D137" s="14"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D138" s="14"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D140" s="14"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D141" s="14"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D142" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B87E3C-AABE-4A4F-BDD2-7D2FCACA6AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6494C65-125D-4F21-970B-D5F5CDCC657B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4250" yWindow="4090" windowWidth="28800" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="361">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1218,6 +1218,110 @@
   </si>
   <si>
     <t>적 1 피해. 방어력 영구 파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헛구역질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">두 번 구토하여 카드 두 장을 손으로 가져옵니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 두 장 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대의 명약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아군 하나를 선택하여 모든 체력을 회복시킵니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 1인 모든 체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 아귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥의 대표적인 수하로 근접한 적에게 1의 피해를 입힙니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,7 +1366,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1284,6 +1388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1353,6 +1463,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1701,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3427,6 +3544,186 @@
       </c>
       <c r="D142" s="14"/>
     </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D143" s="17"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D144" s="17"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D145" s="17"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D146" s="17"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D147" s="17"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D148" s="17"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D150" s="14"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D155" s="14"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D157" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6494C65-125D-4F21-970B-D5F5CDCC657B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A83A61-8B28-43F1-9A89-9EAC95CB498D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="2325" windowWidth="28800" windowHeight="18975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="375">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1322,6 +1322,62 @@
   </si>
   <si>
     <t>지옥의 대표적인 수하로 근접한 적에게 1의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토하기 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 20 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐 간단 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토하기 간단 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1818,22 +1874,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="2"/>
     <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
@@ -2105,1624 +2161,1696 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>65</v>
+      <c r="A23" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>364</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>68</v>
+      <c r="A24" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>70</v>
+        <v>363</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>71</v>
+      <c r="A25" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>73</v>
+        <v>372</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
+      <c r="A26" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
-        <v>19</v>
+      <c r="A27" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>20</v>
+      <c r="A28" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7" t="s">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="7" t="s">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7" t="s">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7" t="s">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9" t="s">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="9" t="s">
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="9" t="s">
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="9" t="s">
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B59" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="9" t="s">
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="9" t="s">
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="12" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>170</v>
+        <v>154</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>170</v>
+        <v>183</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>177</v>
+        <v>156</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>171</v>
+        <v>157</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="12" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="12" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="12" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="12" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="12" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="12" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="12" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="12" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="12" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="12" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="12" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>261</v>
+        <v>245</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="12" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>262</v>
+        <v>252</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="12" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="12" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="12" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="12" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="12" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="12" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="12" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>283</v>
+        <v>270</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="12" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="12" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="12" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>287</v>
+        <v>276</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="12" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="12" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="12" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="12" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="12" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="12" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D128" s="14"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="12" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="12" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="12" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="12" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D132" s="14"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="12" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="12" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D134" s="14"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D135" s="14"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="12" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D136" s="14"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D138" s="14"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="12" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D141" s="14"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D144" s="14"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D145" s="14"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D146" s="14"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D147" s="14"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B148" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C148" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D142" s="14"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="15" t="s">
+      <c r="D148" s="14"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B149" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C143" s="16" t="s">
+      <c r="C149" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="D143" s="17"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="15" t="s">
+      <c r="D149" s="17"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B150" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C144" s="16" t="s">
+      <c r="C150" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D144" s="17"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="15" t="s">
+      <c r="D150" s="17"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B151" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C145" s="16" t="s">
+      <c r="C151" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D145" s="17"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="15" t="s">
+      <c r="D151" s="17"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B152" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C146" s="16" t="s">
+      <c r="C152" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="D146" s="17"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="15" t="s">
+      <c r="D152" s="17"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B153" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C147" s="16" t="s">
+      <c r="C153" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D147" s="17"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="15" t="s">
+      <c r="D153" s="17"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B154" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C148" s="16" t="s">
+      <c r="C154" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D148" s="17"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D149" s="14"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D150" s="14"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D151" s="14"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D152" s="14"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D153" s="14"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D154" s="14"/>
+      <c r="D154" s="17"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="12" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D155" s="14"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="12" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D156" s="14"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D157" s="14"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D158" s="14"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D159" s="14"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D160" s="14"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D161" s="14"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D162" s="14"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B163" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C163" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D157" s="14"/>
+      <c r="D163" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A83A61-8B28-43F1-9A89-9EAC95CB498D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77225211-8CB2-4117-B403-8D13408D2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="2325" windowWidth="28800" windowHeight="18975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="373">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -753,10 +753,6 @@
     <t>CardShortDesc_81010</t>
   </si>
   <si>
-    <t>촌충은 체력이 높지만 스스로 자멸한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,10 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인접한 적 1 피해. 3턴간 중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>81012001_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,18 +800,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">인접한 적 1,2,3열의 적에게 1 피해를 주고, 중독시켜 3턴간 1의 피해를 받습니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인접한 적에게 1의 피해를 주고, 중독시켜 3턴간 1의 피해를 받습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인접한 적 1,2,3열 1 피해. 3턴간 중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CardName_81012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1378,6 +1358,18 @@
   </si>
   <si>
     <t>토하기 간단 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열의 적에게 1피해. 공격 시 스스로에게 1 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열의 적에게 3피해. 공격 시 스스로에게 1 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3열의 적에게 1피해. 2턴간 2의 피해를 주는 중독. 스스로에게 1 피해 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1876,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2162,34 +2154,34 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>64</v>
@@ -2198,37 +2190,37 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2594,37 +2586,37 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D61" s="10"/>
     </row>
@@ -3020,7 +3012,7 @@
         <v>212</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>216</v>
+        <v>370</v>
       </c>
       <c r="D94" s="14"/>
     </row>
@@ -3032,820 +3024,820 @@
         <v>212</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>232</v>
+        <v>371</v>
       </c>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>222</v>
-      </c>
       <c r="C98" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>231</v>
+        <v>372</v>
       </c>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>261</v>
-      </c>
       <c r="C114" s="13" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>285</v>
       </c>
       <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>281</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>286</v>
       </c>
       <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="D128" s="14"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D132" s="14"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D134" s="14"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="12" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D135" s="14"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D136" s="14"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D138" s="14"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D141" s="14"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D142" s="14"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="D143" s="14"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D146" s="14"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D147" s="14"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="15" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D149" s="17"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="15" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D150" s="17"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="15" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D151" s="17"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="15" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D152" s="17"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="15" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="15" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D154" s="17"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D155" s="14"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D156" s="14"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D157" s="14"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D158" s="14"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D159" s="14"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D160" s="14"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D161" s="14"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D162" s="14"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>73</v>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77225211-8CB2-4117-B403-8D13408D2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54046D8E-F780-4A85-A30C-708890E01AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="384">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1370,6 +1370,50 @@
   </si>
   <si>
     <t xml:space="preserve">1,2,3열의 적에게 1피해. 2턴간 2의 피해를 주는 중독. 스스로에게 1 피해 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 지휘관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프의 지휘관으로 근접한 적에게 2의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 자폭병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴 뒤 적 2열에 뛰어들어 6의 피해와 주변에 4의 피해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1866,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3844,6 +3888,78 @@
       </c>
       <c r="D163" s="14"/>
     </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D164" s="14"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D165" s="14"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D166" s="14"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D167" s="14"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D168" s="14"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D169" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54046D8E-F780-4A85-A30C-708890E01AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEA1EC8-E8EB-4287-BF51-BDD4E713951D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="390">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1414,6 +1414,30 @@
   </si>
   <si>
     <t>1턴 뒤 적 2열에 뛰어들어 6의 피해와 주변에 4의 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼내오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 20을 소모하여 루시 위에 있는 카드 3장을 뽑을 카드 더미로 가져온다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 20 소모, 카드 3장 뽑을 카드로 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1910,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3960,6 +3984,42 @@
       </c>
       <c r="D169" s="14"/>
     </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D171" s="14"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D172" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEA1EC8-E8EB-4287-BF51-BDD4E713951D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBBD696-9C58-4038-9C68-03874FFFD73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="396">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1438,6 +1438,30 @@
   </si>
   <si>
     <t>만복도 20 소모, 카드 3장 뽑을 카드로 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시의 체력을 3회복시키고, 소화불량 카드 2개를 제거한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시 체력 3 회복, 소화불량 카드 2개 제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1934,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4020,6 +4044,42 @@
       </c>
       <c r="D172" s="14"/>
     </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D173" s="14"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D175" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBBD696-9C58-4038-9C68-03874FFFD73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F87FF3-11D7-4F7A-A751-1AF9B56D2CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="405">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1462,6 +1462,42 @@
   </si>
   <si>
     <t>루시 체력 3 회복, 소화불량 카드 2개 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만드라고라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루시의 만복도 30을 소비하여, 마나를 3 증가시킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 30감소, 마나 3 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1958,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4080,6 +4116,78 @@
       </c>
       <c r="D175" s="14"/>
     </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D178" s="14"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D179" s="14"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="D181" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F87FF3-11D7-4F7A-A751-1AF9B56D2CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1664A87-6061-43B6-9C64-7BCEBDE919ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="415">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1498,6 +1498,46 @@
   </si>
   <si>
     <t>만복도 30감소, 마나 3 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켈배로스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접한 적에게 2의 데미지를 세번 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비홀더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2열의 적에게 3의 피해를 입히고 주변에 1의 피해를 입힌다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1994,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4188,6 +4228,78 @@
       </c>
       <c r="D181" s="14"/>
     </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D183" s="14"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D184" s="14"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D185" s="14"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D186" s="14"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D187" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1664A87-6061-43B6-9C64-7BCEBDE919ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EA5E75-9036-492D-B74C-6817A4B380A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="435">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1538,6 +1538,85 @@
   </si>
   <si>
     <t xml:space="preserve">2열의 적에게 3의 피해를 입히고 주변에 1의 피해를 입힌다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남동생12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높은 체력에 방어력을 가졌으나 공격이 불가능한 루시의 열두번째 남동생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언니31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 열에 4의 피해를 입히는 루시의 서른 한번째 언니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접한 열에 4의 피해를 입히는 루시의 마흔 세번째 오빠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언니666</t>
+  </si>
+  <si>
+    <t>원하는 적에게 6의 피해를 입히는 루시의 육백유십여섯번째 언니</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2034,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4300,6 +4379,150 @@
       </c>
       <c r="D187" s="14"/>
     </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D188" s="14"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D189" s="14"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D190" s="14"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D191" s="14"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D192" s="14"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D193" s="14"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D194" s="14"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D195" s="14"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D196" s="14"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D197" s="14"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D198" s="14"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D199" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EA5E75-9036-492D-B74C-6817A4B380A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EA5A33-98D8-40BE-8FBA-4B36576BB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="441">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1617,6 +1617,30 @@
   </si>
   <si>
     <t>원하는 적에게 6의 피해를 입히는 루시의 육백유십여섯번째 언니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드에 있는 카드 한장을 삼킨다. 삼킨 카드는 다음턴에 핸드에 돌아오며 비용이 0이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 한장 삼켜 다음턴으로 삼킨 카드 비용 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4523,6 +4547,42 @@
       </c>
       <c r="D199" s="14"/>
     </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D200" s="14"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D201" s="14"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D202" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EA5A33-98D8-40BE-8FBA-4B36576BB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA784A-CDD1-48C5-A06E-463C7E6C1C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="453">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1641,6 +1641,54 @@
   </si>
   <si>
     <t>카드 한장 삼켜 다음턴으로 삼킨 카드 비용 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 성수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마의 트름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적의 방어력을 3턴간 3 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적 방어력 3턴간 3 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군의 크리쳐 하나의 체력을 3 회복시키고, 2턴간 방어력을 3 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리쳐 체력 3회복, 2턴간 방어력 3 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2137,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4583,6 +4631,78 @@
       </c>
       <c r="D202" s="14"/>
     </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D203" s="14"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D204" s="14"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D205" s="14"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D206" s="14"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D207" s="14"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D208" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA784A-CDD1-48C5-A06E-463C7E6C1C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C41BD5-937C-44DC-8EDD-A6703EC7AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="470">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1689,6 +1689,74 @@
   </si>
   <si>
     <t>크리쳐 체력 3회복, 2턴간 방어력 3 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81047000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유황 고구마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유황 고구마_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 마다 10의 만복도를 충전합니다. 2턴 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴당 만복도 10중가. 2턴 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화불량 카드 2장 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2장중 1장 핸드로 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3장중 1장 뽑을 카드로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4장중 1장 무덤 카드로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2185,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4703,6 +4771,102 @@
       </c>
       <c r="D208" s="14"/>
     </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="D209" s="14"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D210" s="14"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D211" s="14"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D212" s="14"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D213" s="14"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D214" s="14"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D215" s="14"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D216" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C41BD5-937C-44DC-8EDD-A6703EC7AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD4986-B604-479D-8B24-49DC4AD8FCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,30 +1620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CardName_81044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_81044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardShortDesc_81044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼키기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드에 있는 카드 한장을 삼킨다. 삼킨 카드는 다음턴에 핸드에 돌아오며 비용이 0이 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 한장 삼켜 다음턴으로 삼킨 카드 비용 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CardName_81045</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1757,6 +1733,30 @@
   </si>
   <si>
     <t>4장중 1장 무덤 카드로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 한방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만복도 50 이상 일 때 사용 가능. 1열에 데미지 4를 2,3열에 데미지 2를 입힌다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열에 데미지 4를 2,3열에 데미지 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1860,7 +1860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1905,6 +1905,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2255,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3007,1116 +3012,1116 @@
       </c>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="14"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="14"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="14"/>
+    <row r="62" spans="1:4" s="20" customFormat="1">
+      <c r="A62" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="1:4" s="20" customFormat="1">
+      <c r="A63" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="1:4" s="20" customFormat="1">
+      <c r="A64" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:4" s="20" customFormat="1">
+      <c r="A65" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>170</v>
+        <v>183</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>170</v>
+        <v>156</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>170</v>
+        <v>157</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>177</v>
+        <v>158</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="12" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="12" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>370</v>
+        <v>209</v>
       </c>
       <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>371</v>
+        <v>212</v>
       </c>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>216</v>
+        <v>370</v>
       </c>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>236</v>
+        <v>372</v>
       </c>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="12" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="12" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="12" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="12" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>256</v>
+        <v>240</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="12" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>265</v>
+        <v>256</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="12" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>266</v>
+        <v>257</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="12" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="12" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>271</v>
+        <v>257</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>272</v>
+        <v>265</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="12" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>280</v>
+        <v>271</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="12" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D128" s="14"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="12" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="12" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="12" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="12" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D132" s="14"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="12" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="12" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D134" s="14"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="12" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D135" s="14"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="12" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D136" s="14"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="12" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="12" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D138" s="14"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D141" s="14"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="12" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D142" s="14"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D143" s="14"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="12" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D146" s="14"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="12" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D147" s="14"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D148" s="14"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D150" s="14"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B152" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C152" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D148" s="14"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D149" s="17"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D150" s="17"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D151" s="17"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D152" s="17"/>
+      <c r="D152" s="14"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>334</v>
@@ -4124,722 +4129,722 @@
       <c r="D154" s="17"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D155" s="14"/>
+      <c r="A155" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D155" s="17"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D156" s="14"/>
+      <c r="A156" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D156" s="17"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="D157" s="14"/>
+      <c r="A157" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D158" s="14"/>
+      <c r="A158" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D159" s="14"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D160" s="14"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="12" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D161" s="14"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D162" s="14"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="D163" s="14"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="12" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="D164" s="14"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="12" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D165" s="14"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="12" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="D166" s="14"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="12" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>381</v>
+        <v>354</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D168" s="14"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="12" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>388</v>
+        <v>381</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="D171" s="14"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="12" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="12" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>393</v>
+        <v>381</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>382</v>
       </c>
       <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>394</v>
+        <v>384</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="12" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>393</v>
+        <v>384</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>389</v>
       </c>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="12" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B177" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C177" s="13" t="s">
-        <v>394</v>
+      <c r="C177" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="12" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B178" s="12" t="s">
         <v>393</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="12" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>395</v>
       </c>
       <c r="D179" s="14"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>403</v>
+        <v>393</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="12" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>408</v>
+        <v>393</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>395</v>
       </c>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="12" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>409</v>
+        <v>402</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="12" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="12" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>413</v>
+        <v>402</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>404</v>
       </c>
       <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>414</v>
+        <v>408</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>205</v>
+        <v>409</v>
       </c>
       <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="12" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>418</v>
+        <v>408</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>419</v>
+        <v>413</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="12" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>216</v>
+        <v>414</v>
       </c>
       <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="12" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>423</v>
+        <v>413</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>424</v>
+        <v>418</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>205</v>
+        <v>419</v>
       </c>
       <c r="D193" s="14"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="12" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>428</v>
+        <v>418</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>429</v>
+        <v>423</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="D195" s="14"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>216</v>
+        <v>424</v>
       </c>
       <c r="D196" s="14"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="12" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>433</v>
+        <v>423</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D197" s="14"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>434</v>
+        <v>428</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="D198" s="14"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="12" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="D199" s="14"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="12" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>438</v>
+        <v>428</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D200" s="14"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>439</v>
+        <v>433</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="D201" s="14"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D202" s="14"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="12" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>445</v>
+        <v>433</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D203" s="14"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="C204" s="13" t="s">
-        <v>446</v>
+        <v>439</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="D204" s="14"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="12" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="12" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>444</v>
+        <v>439</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>441</v>
       </c>
       <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="12" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>451</v>
+        <v>438</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="D207" s="14"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D208" s="14"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="12" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>457</v>
+        <v>438</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>446</v>
       </c>
       <c r="D209" s="14"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="12" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>459</v>
+        <v>451</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="D210" s="14"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="12" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D211" s="14"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="12" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D212" s="14"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="12" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>467</v>
+        <v>452</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>455</v>
       </c>
       <c r="D213" s="14"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="12" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D214" s="14"/>
     </row>
@@ -4848,10 +4853,10 @@
         <v>464</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C215" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>468</v>
       </c>
       <c r="D215" s="14"/>
     </row>
@@ -4860,10 +4865,10 @@
         <v>465</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C216" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>469</v>
       </c>
       <c r="D216" s="14"/>
     </row>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD4986-B604-479D-8B24-49DC4AD8FCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADC041-18F3-4283-9FE8-78A8CDAADED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="474">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1757,6 +1757,20 @@
   </si>
   <si>
     <t>1열에 데미지 4를 2,3열에 데미지 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99995</t>
+  </si>
+  <si>
+    <t>CardName_99996</t>
+  </si>
+  <si>
+    <t>만복도 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 지속 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1860,7 +1874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1905,11 +1919,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2258,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3012,1152 +3022,1152 @@
       </c>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4" s="20" customFormat="1">
-      <c r="A62" s="18" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D62" s="19"/>
-    </row>
-    <row r="63" spans="1:4" s="20" customFormat="1">
-      <c r="A63" s="18" t="s">
+      <c r="D62" s="18"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D63" s="19"/>
-    </row>
-    <row r="64" spans="1:4" s="20" customFormat="1">
-      <c r="A64" s="18" t="s">
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="1:4" s="20" customFormat="1">
-      <c r="A65" s="18" t="s">
+      <c r="D64" s="18"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="14"/>
+      <c r="A66" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D67" s="14"/>
+      <c r="A67" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>149</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="12" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>170</v>
+        <v>157</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="12" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>171</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>187</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>198</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>210</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>212</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>224</v>
+        <v>370</v>
       </c>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>371</v>
+        <v>216</v>
       </c>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>221</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="12" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="12" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="12" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>235</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>240</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>247</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C119" s="13" t="s">
-        <v>259</v>
+      <c r="C119" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>261</v>
+      <c r="C122" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="12" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="12" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C125" s="13" t="s">
-        <v>267</v>
+      <c r="C125" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C128" s="13" t="s">
-        <v>273</v>
+      <c r="C128" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="D128" s="14"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>278</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D132" s="14"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="12" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D134" s="14"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>286</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D135" s="14"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D136" s="14"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>292</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D138" s="14"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="12" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="12" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>295</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D141" s="14"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D142" s="14"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D143" s="14"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D146" s="14"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D147" s="14"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>320</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D149" s="14"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="12" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D150" s="14"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D151" s="14"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>327</v>
       </c>
       <c r="C152" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D152" s="14"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D153" s="17"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D154" s="17"/>
+      <c r="D154" s="14"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B155" s="15" t="s">
         <v>333</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D155" s="17"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D156" s="17"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>334</v>
@@ -4166,711 +4176,735 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B158" s="15" t="s">
         <v>338</v>
       </c>
       <c r="C158" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D158" s="17"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C159" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="D158" s="17"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D159" s="14"/>
+      <c r="D159" s="17"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D160" s="14"/>
+      <c r="A160" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D160" s="17"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>342</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D161" s="14"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D162" s="14"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D163" s="14"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>348</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D164" s="14"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D165" s="14"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D166" s="14"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>354</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>73</v>
+        <v>354</v>
       </c>
       <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="12" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D168" s="14"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="12" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B170" s="12" t="s">
         <v>376</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>377</v>
       </c>
       <c r="D171" s="14"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B173" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C173" s="13" t="s">
-        <v>382</v>
+      <c r="C173" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>383</v>
       </c>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B176" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C176" s="13" t="s">
-        <v>389</v>
+      <c r="C176" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>393</v>
+        <v>384</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>388</v>
       </c>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B179" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C179" s="13" t="s">
-        <v>395</v>
+      <c r="C179" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="D179" s="14"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B180" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C180" s="12" t="s">
-        <v>393</v>
+      <c r="C180" s="13" t="s">
+        <v>394</v>
       </c>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B181" s="12" t="s">
         <v>393</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B182" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C182" s="13" t="s">
-        <v>395</v>
+      <c r="C182" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>394</v>
       </c>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="C185" s="13" t="s">
-        <v>404</v>
+      <c r="C185" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="12" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B188" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="C188" s="13" t="s">
-        <v>73</v>
+      <c r="C188" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>409</v>
       </c>
       <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B191" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="C191" s="13" t="s">
-        <v>205</v>
+      <c r="C191" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>414</v>
       </c>
       <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>419</v>
+        <v>205</v>
       </c>
       <c r="D193" s="14"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B194" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="C194" s="13" t="s">
-        <v>216</v>
+      <c r="C194" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>419</v>
       </c>
       <c r="D195" s="14"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="D196" s="14"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B197" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="C197" s="13" t="s">
-        <v>205</v>
+      <c r="C197" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="D197" s="14"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="12" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="D198" s="14"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="D199" s="14"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B200" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="C200" s="13" t="s">
-        <v>216</v>
+      <c r="C200" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="D200" s="14"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="D201" s="14"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>434</v>
+        <v>216</v>
       </c>
       <c r="D202" s="14"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="C203" s="13" t="s">
-        <v>205</v>
+      <c r="C203" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="D203" s="14"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>434</v>
       </c>
       <c r="D204" s="14"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>440</v>
+        <v>205</v>
       </c>
       <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="C206" s="13" t="s">
-        <v>441</v>
+      <c r="C206" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="12" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C207" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>440</v>
       </c>
       <c r="D207" s="14"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="12" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D208" s="14"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B209" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="C209" s="13" t="s">
-        <v>446</v>
+      <c r="C209" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="D209" s="14"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="12" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C210" s="12" t="s">
-        <v>451</v>
+        <v>438</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>445</v>
       </c>
       <c r="D210" s="14"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="12" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D211" s="14"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B212" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="C212" s="13" t="s">
-        <v>454</v>
+      <c r="C212" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="D212" s="14"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D213" s="14"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="12" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>467</v>
+        <v>451</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>454</v>
       </c>
       <c r="D214" s="14"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="12" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D215" s="14"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="C216" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D216" s="14"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D217" s="14"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C218" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="D216" s="14"/>
+      <c r="D218" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADC041-18F3-4283-9FE8-78A8CDAADED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A77B1AE-5249-40CE-98E9-ADA1195EFC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="481">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1771,6 +1771,33 @@
   </si>
   <si>
     <t>만복도 지속 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹슬라임</t>
+  </si>
+  <si>
+    <t>킹슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열의 적에게 4의 피해를 입히고, 루시의 마나 1과 만복도 10을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열에 데미지 4, 마나 1, 만복도 10 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2268,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4906,6 +4933,42 @@
       </c>
       <c r="D218" s="14"/>
     </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D219" s="14"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D220" s="14"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D221" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A77B1AE-5249-40CE-98E9-ADA1195EFC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19737B27-3CE5-4392-9296-B53E98538FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="490">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1798,6 +1798,42 @@
   </si>
   <si>
     <t>1열에 데미지 4, 마나 1, 만복도 10 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81050000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐식의 욕망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐식의 욕망_효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 10을 소모하여 루시의 공격력 5 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 10 감소, 루시 공격력 5 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2295,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4969,6 +5005,54 @@
       </c>
       <c r="D221" s="14"/>
     </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D222" s="14"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D223" s="14"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D224" s="14"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D225" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19737B27-3CE5-4392-9296-B53E98538FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5856AB3B-DC24-4F3F-92DE-2397C120DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="496">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1834,6 +1834,30 @@
   </si>
   <si>
     <t>공격력 +5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 50 증가, 소화 불량 3장을 무덤 덱에 소환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 50증가, 소화불량 3장 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2331,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5053,6 +5077,42 @@
       </c>
       <c r="D225" s="14"/>
     </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D226" s="14"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D227" s="14"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D228" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5856AB3B-DC24-4F3F-92DE-2397C120DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B88D0-AC11-4D8A-9D99-3AE1AAFE28EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="502">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1858,6 +1858,28 @@
   </si>
   <si>
     <t>만복도 50증가, 소화불량 3장 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99997</t>
+  </si>
+  <si>
+    <t>CardName_99998</t>
+  </si>
+  <si>
+    <t>만복도 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 최대치 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 모두 스턴 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2355,10 +2377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3182,1103 +3204,1103 @@
       <c r="D67" s="18"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="14"/>
+      <c r="A68" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="14"/>
+      <c r="A69" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>149</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="12" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>159</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>170</v>
+        <v>157</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="12" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>171</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="12" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="12" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>187</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>198</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>210</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>212</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>224</v>
+        <v>370</v>
       </c>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>371</v>
+        <v>216</v>
       </c>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>221</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="12" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="12" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="12" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>235</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>240</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>247</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="13" t="s">
-        <v>259</v>
+      <c r="C121" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C124" s="13" t="s">
-        <v>261</v>
+      <c r="C124" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="12" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="12" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C127" s="13" t="s">
-        <v>267</v>
+      <c r="C127" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="D128" s="14"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C130" s="13" t="s">
-        <v>273</v>
+      <c r="C130" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D132" s="14"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>278</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D134" s="14"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D135" s="14"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="12" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D136" s="14"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>286</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D138" s="14"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>292</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="12" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D141" s="14"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="12" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D142" s="14"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>295</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D143" s="14"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D146" s="14"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D147" s="14"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D149" s="14"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>320</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D150" s="14"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D151" s="14"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="12" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D152" s="14"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D153" s="14"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>327</v>
       </c>
       <c r="C154" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D155" s="14"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D154" s="14"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B155" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D155" s="17"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D156" s="17"/>
+      <c r="D156" s="14"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B157" s="15" t="s">
         <v>333</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>334</v>
@@ -4287,831 +4309,855 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B160" s="15" t="s">
         <v>338</v>
       </c>
       <c r="C160" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D160" s="17"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C161" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="D160" s="17"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D161" s="14"/>
+      <c r="D161" s="17"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D162" s="14"/>
+      <c r="A162" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D162" s="17"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>342</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D163" s="14"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D164" s="14"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D165" s="14"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B166" s="12" t="s">
         <v>348</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D166" s="14"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D168" s="14"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>354</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>73</v>
+        <v>354</v>
       </c>
       <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="12" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="12" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="D171" s="14"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B172" s="12" t="s">
         <v>376</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>377</v>
       </c>
       <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B175" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C175" s="13" t="s">
-        <v>382</v>
+      <c r="C175" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>383</v>
       </c>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B178" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C178" s="13" t="s">
-        <v>389</v>
+      <c r="C178" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>393</v>
+        <v>384</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>388</v>
       </c>
       <c r="D179" s="14"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B181" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C181" s="13" t="s">
-        <v>395</v>
+      <c r="C181" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B182" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C182" s="12" t="s">
-        <v>393</v>
+      <c r="C182" s="13" t="s">
+        <v>394</v>
       </c>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B183" s="12" t="s">
         <v>393</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B184" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C184" s="13" t="s">
-        <v>395</v>
+      <c r="C184" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>394</v>
       </c>
       <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B187" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="C187" s="13" t="s">
-        <v>404</v>
+      <c r="C187" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="12" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B190" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="C190" s="13" t="s">
-        <v>73</v>
+      <c r="C190" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>409</v>
       </c>
       <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B193" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="C193" s="13" t="s">
-        <v>205</v>
+      <c r="C193" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="D193" s="14"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>414</v>
       </c>
       <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>419</v>
+        <v>205</v>
       </c>
       <c r="D195" s="14"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B196" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="C196" s="13" t="s">
-        <v>216</v>
+      <c r="C196" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="D196" s="14"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>419</v>
       </c>
       <c r="D197" s="14"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="D198" s="14"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="C199" s="13" t="s">
-        <v>205</v>
+      <c r="C199" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="D199" s="14"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="12" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="D200" s="14"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="D201" s="14"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B202" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="C202" s="13" t="s">
-        <v>216</v>
+      <c r="C202" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="D202" s="14"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="D203" s="14"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>434</v>
+        <v>216</v>
       </c>
       <c r="D204" s="14"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="C205" s="13" t="s">
-        <v>205</v>
+      <c r="C205" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>434</v>
       </c>
       <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>440</v>
+        <v>205</v>
       </c>
       <c r="D207" s="14"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B208" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="C208" s="13" t="s">
-        <v>441</v>
+      <c r="C208" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="D208" s="14"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="12" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>440</v>
       </c>
       <c r="D209" s="14"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="12" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D210" s="14"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="C211" s="13" t="s">
-        <v>446</v>
+      <c r="C211" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="D211" s="14"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="12" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C212" s="12" t="s">
-        <v>451</v>
+        <v>438</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>445</v>
       </c>
       <c r="D212" s="14"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="12" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D213" s="14"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="C214" s="13" t="s">
-        <v>454</v>
+      <c r="C214" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="D214" s="14"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D215" s="14"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="12" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C216" s="12" t="s">
-        <v>467</v>
+        <v>451</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>454</v>
       </c>
       <c r="D216" s="14"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="12" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D217" s="14"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="C218" s="13" t="s">
-        <v>469</v>
+      <c r="C218" s="12" t="s">
+        <v>467</v>
       </c>
       <c r="D218" s="14"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="12" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="C219" s="12" t="s">
-        <v>477</v>
+        <v>467</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>468</v>
       </c>
       <c r="D219" s="14"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="12" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D220" s="14"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="C221" s="13" t="s">
-        <v>480</v>
+      <c r="C221" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="D221" s="14"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="C222" s="12" t="s">
-        <v>485</v>
+        <v>478</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>479</v>
       </c>
       <c r="D222" s="14"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="12" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D223" s="14"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B224" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="C224" s="13" t="s">
-        <v>488</v>
+      <c r="C224" s="12" t="s">
+        <v>485</v>
       </c>
       <c r="D224" s="14"/>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D225" s="14"/>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="12" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="C226" s="12" t="s">
-        <v>493</v>
+        <v>485</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>488</v>
       </c>
       <c r="D226" s="14"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="12" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D227" s="14"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B228" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C228" s="13" t="s">
+      <c r="C228" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D228" s="14"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D229" s="14"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C230" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="D228" s="14"/>
+      <c r="D230" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B88D0-AC11-4D8A-9D99-3AE1AAFE28EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402C0AD-9190-4723-AEFC-0E82D67272E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="513">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1880,6 +1880,50 @@
   </si>
   <si>
     <t>적 모두 스턴 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 100 증가, 세번 구토하여 카드를 손으로 소환하고 구토시 마다 만복도 20이 감소됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 100증가, 구토 3회, 구토 시 만복도 -20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액 슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열에 데미지 2, 자신 체력 회복 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열에 데미지2, 공격 성공시 자신의 체력 2 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2377,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5159,6 +5203,78 @@
       </c>
       <c r="D230" s="14"/>
     </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D231" s="14"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D232" s="14"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D233" s="14"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D234" s="14"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D235" s="14"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D236" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402C0AD-9190-4723-AEFC-0E82D67272E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9D75B-DA55-49D5-A688-EA5675CE1E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="533">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1924,6 +1924,82 @@
   </si>
   <si>
     <t>1열에 데미지2, 공격 성공시 자신의 체력 2 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼로리 방출</t>
+  </si>
+  <si>
+    <t>칼로리 방출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81051001_IconDesc</t>
+  </si>
+  <si>
+    <t>81051002_IconDesc</t>
+  </si>
+  <si>
+    <t>칼로리 방출 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼로리 방출 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 최대치 0, 공격력 5, 방어력 3 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시의 만복도 이번 전투에서 0이 되며 공격력이 5, 방어력이 3 상승한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81052001_IconDesc</t>
+  </si>
+  <si>
+    <t>후라이팬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후라이팬_스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2열의 적에게 3 피해를 주고 1턴간 스턴 상태에 빠트린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2열 적 3피해, 1턴간 스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스턴 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2421,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5169,111 +5245,219 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="12" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="D228" s="14"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="12" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="D229" s="14"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="12" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="D230" s="14"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="12" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C231" s="12" t="s">
-        <v>338</v>
+        <v>520</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>489</v>
       </c>
       <c r="D231" s="14"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="12" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>338</v>
+        <v>521</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>505</v>
+        <v>282</v>
       </c>
       <c r="D232" s="14"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="12" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>506</v>
+        <v>528</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="D233" s="14"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="12" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C234" s="12" t="s">
-        <v>510</v>
+        <v>528</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>530</v>
       </c>
       <c r="D234" s="14"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="12" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="D235" s="14"/>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D236" s="14"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D237" s="14"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D238" s="14"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D239" s="14"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D240" s="14"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D241" s="14"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D242" s="14"/>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D243" s="14"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D244" s="14"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="B236" s="12" t="s">
+      <c r="B245" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="C236" s="13" t="s">
+      <c r="C245" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="D236" s="14"/>
+      <c r="D245" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9D75B-DA55-49D5-A688-EA5675CE1E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C294713-65CE-49AB-91B6-72DAE857DD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="560">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2000,6 +2011,112 @@
   </si>
   <si>
     <t xml:space="preserve">스턴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81056000_IconDesc</t>
+  </si>
+  <si>
+    <t>몽마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽마_스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2열의 적에게 매턴 마다 1턴간 스턴을 시전한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2열 적 매턴 마다 1턴간 스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81057000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어_효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루시의 방어력을 1턴간 3 증가시킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴간 방어력 +3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81058000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81058001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투준비_공격</t>
+  </si>
+  <si>
+    <t>전투준비_방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루시의 공격력과 방어력을 1턴간 2 증가시킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴간 공격력, 방어력 +2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 +2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2497,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="H246" sqref="H246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5459,6 +5576,162 @@
       </c>
       <c r="D245" s="14"/>
     </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D246" s="14"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D247" s="14"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="D248" s="14"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D249" s="14"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D250" s="14"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="D251" s="14"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D252" s="14"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D253" s="14"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="D254" s="14"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="D255" s="14"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D256" s="14"/>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="D257" s="14"/>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D258" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C294713-65CE-49AB-91B6-72DAE857DD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A1301A-0829-4F9D-8D17-80FAAF545AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="578">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2117,6 +2117,76 @@
   </si>
   <si>
     <t>방어력 +2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식욕 폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식욕 폭발_방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만복도를 30 소모하여 루시의 공격력과 방어력을 1턴간 3씩 증가시킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 30 감소, 1턴간 공격력, 방어력 +3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81059001_IconDesc</t>
+  </si>
+  <si>
+    <t>81059002_IconDesc</t>
+  </si>
+  <si>
+    <t>식욕 폭발_공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허의 바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허의 공포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만복도를 80 소모하여 적 하나에게 12의 피해를 입힌다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 80 감소, 적 하나에게 12 피해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2614,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="H246" sqref="H246"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5732,6 +5802,102 @@
       </c>
       <c r="D258" s="14"/>
     </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D259" s="14"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="D260" s="14"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D261" s="14"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D262" s="14"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="D263" s="14"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="D264" s="14"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D265" s="14"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D266" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A1301A-0829-4F9D-8D17-80FAAF545AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF557CA8-AD64-4FBF-B3C0-71BE230D83FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="602">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2187,6 +2187,99 @@
   </si>
   <si>
     <t>만복도 80 감소, 적 하나에게 12 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적에게 3의 피해를 주고 자르기, 찌르기 상태의 적에게는 1의 데미지를 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적 피해 3, 자르기, 찌르기 적에게 1 추가 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료손질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료손질_자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료손질_찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 적에게 3의 피해를 주고 99턴간 자르기, 찌르기 상태 효과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적 피해 3, 99턴간 자르기, 찌르기 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81062001_IconDesc</t>
+  </si>
+  <si>
+    <t>81062002_IconDesc</t>
+  </si>
+  <si>
+    <t>CardName_81063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81063001_IconDesc</t>
+  </si>
+  <si>
+    <t>꼬치구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치구이_찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3열의 적에게 2의 피해를 주고 5턴간 찌르기 상태 효과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3열 적 피해 2, 5턴간 찌르기 효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2684,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5898,6 +5991,150 @@
       </c>
       <c r="D266" s="14"/>
     </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D267" s="14"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D268" s="14"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="D269" s="14"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="D270" s="14"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="D271" s="14"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="D272" s="14"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D273" s="14"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D274" s="14"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="D275" s="14"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="D276" s="14"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="D277" s="14"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C278" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D278" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF557CA8-AD64-4FBF-B3C0-71BE230D83FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E5605-670D-4E2F-9935-FB34004732A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="608">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2280,6 +2280,30 @@
   </si>
   <si>
     <t>1,2,3열 적 피해 2, 5턴간 찌르기 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소룡포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 +10, 마나 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시의 만복도 10을 채우고, 마나 1을 회복한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2777,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D278"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6135,6 +6159,42 @@
       </c>
       <c r="D278" s="14"/>
     </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="D279" s="14"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D280" s="14"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D281" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E5605-670D-4E2F-9935-FB34004732A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933DCF7-8DA8-4272-9C88-7DAF84629E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="614">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2304,6 +2304,30 @@
   </si>
   <si>
     <t>루시의 만복도 10을 채우고, 마나 1을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집어삼키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열의 적을 2의 공격력으로 3회 공격, 공격 성공시 만복도 5씩 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열 적 2 피해 3회, 공격 성공시 만복도 +5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2801,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6195,6 +6219,42 @@
       </c>
       <c r="D281" s="14"/>
     </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="D282" s="14"/>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C283" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D283" s="14"/>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D284" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933DCF7-8DA8-4272-9C88-7DAF84629E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA9A7D-213F-4C05-A970-7FEFF5FF5637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="626">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2328,6 +2328,54 @@
   </si>
   <si>
     <t>1열 적 2 피해 3회, 공격 성공시 만복도 +5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지독한숙취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2열의 적에게 3의 피해를 주고, 구토를하여 카드를 손으로 가져온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2열의 적 3피해, 카드 한장 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿰뚫는일격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2열의 적에게 방어력을 무시하는 2의 피해를 2회 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2열의 적 2피해 2회 방어 무시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2825,10 +2873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6255,6 +6303,78 @@
       </c>
       <c r="D284" s="14"/>
     </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="D285" s="14"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="D286" s="14"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="D287" s="14"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D288" s="14"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D289" s="14"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="D290" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA9A7D-213F-4C05-A970-7FEFF5FF5637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D7D94-21B5-40EA-98F6-28D6B321A3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="642">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2376,6 +2376,69 @@
   </si>
   <si>
     <t>1,2열의 적 2피해 2회 방어 무시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81068000_IconDesc</t>
+  </si>
+  <si>
+    <t>마왕의장막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의장막_방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군의 방어력을 2턴간 3 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군 2턴간 방어력 +3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81069000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의비수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의비수_방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군의 공격력을 2턴간 2 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군 2턴간 공격력 +2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2873,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B292" sqref="B292"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6375,6 +6438,102 @@
       </c>
       <c r="D290" s="14"/>
     </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="D291" s="14"/>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="D292" s="14"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C293" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="D293" s="14"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D294" s="14"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="D295" s="14"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D296" s="14"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C297" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="D297" s="14"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D298" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D7D94-21B5-40EA-98F6-28D6B321A3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C2C0D-A9FC-4225-B68C-2E2F1403EFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="651">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2440,6 +2440,41 @@
   <si>
     <t>모든 아군 2턴간 공격력 +2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의가호_방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군의 체력을 5회복시키고, 1턴간 방어력을 20 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군 체력 +5, 1턴간 방어력 +20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 +20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81070001_IconDesc</t>
   </si>
 </sst>
 </file>
@@ -2936,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C299" sqref="C299"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6534,6 +6569,54 @@
       </c>
       <c r="D298" s="14"/>
     </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D299" s="14"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="D300" s="14"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="D301" s="14"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="D302" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C2C0D-A9FC-4225-B68C-2E2F1403EFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF72BD-8A46-4826-99AD-1F50B82E48F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="657">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2475,6 +2475,30 @@
   </si>
   <si>
     <t>81070001_IconDesc</t>
+  </si>
+  <si>
+    <t>CardName_81071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전소화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화불량 카드를 모두 삭제하고 만복도를 100 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화불량 카드 삭제, 만복도 +100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2971,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A304" sqref="A304"/>
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6617,6 +6641,42 @@
       </c>
       <c r="D302" s="14"/>
     </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="D303" s="14"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="D304" s="14"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="D305" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF72BD-8A46-4826-99AD-1F50B82E48F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE6BEA-51A6-4305-B824-6E5E6B919930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="674">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2498,6 +2498,73 @@
   </si>
   <si>
     <t>소화불량 카드 삭제, 만복도 +100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81072000_IconDesc</t>
+  </si>
+  <si>
+    <t>부패의숨결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부패의숨결_방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 적군의 방어력을 2턴간 파괴한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적 방어력 2턴간 파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81073000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액분비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액분비_방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적군의 방어력을 2턴간 파괴하고, 2의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적 방어력 2턴간 파괴 후 2의 피해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2995,10 +3062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C308" sqref="C308"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6677,6 +6744,102 @@
       </c>
       <c r="D305" s="14"/>
     </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="D306" s="14"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="C307" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D307" s="14"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="D308" s="14"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="D309" s="14"/>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="D310" s="14"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C311" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D311" s="14"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C312" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D312" s="14"/>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C313" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="D313" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE6BEA-51A6-4305-B824-6E5E6B919930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B5587A-7AD7-4DA7-8171-27954A3BE9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="686">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2565,6 +2565,54 @@
   </si>
   <si>
     <t>모든 적 방어력 2턴간 파괴 후 2의 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시의 체력을 5 회복하고 만복도를 10 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시 체력 +5, 만복도 +10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 적을 1턴간 스턴 시킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적 1턴간 스턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3062,10 +3110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="C313" sqref="C313"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6840,6 +6888,78 @@
       </c>
       <c r="D313" s="14"/>
     </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B314" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="D314" s="14"/>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C315" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="D315" s="14"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B316" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="D316" s="14"/>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D317" s="14"/>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="C318" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D318" s="14"/>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="C319" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D319" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/TextData.xlsx
+++ b/Assets/ERang/Excels/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B5587A-7AD7-4DA7-8171-27954A3BE9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503BEEBB-5F14-4302-9035-D27751A2A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="692">
   <si>
     <t>DescID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2613,6 +2613,30 @@
   </si>
   <si>
     <t>모든 적 1턴간 스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 종료 시 30의 골드를 채굴한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 당 골드 +30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3110,10 +3134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D319"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="C323" sqref="C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6960,6 +6984,42 @@
       </c>
       <c r="D319" s="14"/>
     </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D320" s="14"/>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="C321" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="D321" s="14"/>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="C322" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D322" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
